--- a/User Stories-Acceptance Criteria-Test Cases/Acceptance Criteria - Code Avengers - Book Buddy.xlsx
+++ b/User Stories-Acceptance Criteria-Test Cases/Acceptance Criteria - Code Avengers - Book Buddy.xlsx
@@ -427,12 +427,12 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> the system will generate recommendations based off no input</t>
+      <t xml:space="preserve"> the system will generate recommendations based off genres liked</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">
--The system will have a way to return recommendations with no input</t>
+-The system will have a way to return recommendations with genres only</t>
   </si>
   <si>
     <t>US7</t>

--- a/User Stories-Acceptance Criteria-Test Cases/Acceptance Criteria - Code Avengers - Book Buddy.xlsx
+++ b/User Stories-Acceptance Criteria-Test Cases/Acceptance Criteria - Code Avengers - Book Buddy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Acceptance Criteria</t>
   </si>
@@ -1372,75 +1372,6 @@
     <t>-The system should offer registration that is easy to use</t>
   </si>
   <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>As a passionate reader, I want to be able to register for an account with third party providers (Facebook, Google, etc), so that I can access the application and not have to remember another password.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> that the reader wants to register without creating a new password
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> the user registers
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Century Gothic"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> the site should offer to register using an existing Google/Facebook account</t>
-    </r>
-  </si>
-  <si>
-    <t>-The system should not force the user to create an account with an email and password
--The system should still automatically create the user account account with the given information
--The user will have the option to choose between Facebook or Google registration</t>
-  </si>
-  <si>
     <t>US21</t>
   </si>
   <si>
@@ -1507,9 +1438,6 @@
   <si>
     <t>-The system will implement a password recovery method
 -The user will be able to complete this process quickly</t>
-  </si>
-  <si>
-    <t>US22</t>
   </si>
   <si>
     <t>As a busy reader, I want to be able to log out, so I can end my session securely.</t>
@@ -2617,19 +2545,19 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" ht="101.25" customHeight="1">
+    <row r="24" ht="173.25" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2645,20 +2573,12 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" ht="173.25" customHeight="1">
+    <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2673,45 +2593,45 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
@@ -22313,31 +22233,11 @@
       <c r="Q1007" s="8"/>
       <c r="R1007" s="8"/>
     </row>
-    <row r="1008">
-      <c r="A1008" s="5"/>
-      <c r="B1008" s="5"/>
-      <c r="C1008" s="5"/>
-      <c r="D1008" s="18"/>
-      <c r="E1008" s="7"/>
-      <c r="F1008" s="8"/>
-      <c r="G1008" s="8"/>
-      <c r="H1008" s="8"/>
-      <c r="I1008" s="8"/>
-      <c r="J1008" s="8"/>
-      <c r="K1008" s="8"/>
-      <c r="L1008" s="8"/>
-      <c r="M1008" s="8"/>
-      <c r="N1008" s="8"/>
-      <c r="O1008" s="8"/>
-      <c r="P1008" s="8"/>
-      <c r="Q1008" s="8"/>
-      <c r="R1008" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.3" footer="0.0" header="0.0" left="0.3" right="0.3" top="0.3"/>
